--- a/pc방 상품 명세서.xlsx
+++ b/pc방 상품 명세서.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,25 +112,6 @@
   </si>
   <si>
     <t>회원양식을 다 작성한후 가입신청시 회원가입이 완료된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어디에 나오는지? 
-ex) 상품 리스트에 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼에 대한 모양보단 용도로 기입 
-ex) 검색버튼 
-화면에 어떻게 나오는지는 2번에서 설명했기 때문에 ~화면에 나온다. 정도로만 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디에서 증가, 감소가 표시되는지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,27 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 양식에는 무엇을 입력해야하는지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최근주문목록은 어디에, 어떻게 구성되어있는지? 
-ex) 최근주문목록버튼 클릭 시 팝업창이 나타난다 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계서의 메뉴와 일치하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천메뉴,메인음식,면류,버거류,캔음료,카페음료들로 구성되어있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,11 +168,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최근주문목록버튼을 클릭할 시 주문한 상품리스트의 팝업창이 나타난다</t>
+    <t>계발기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원이 아닌 사람들은 회원가입버튼을 클릭 시 나이, 이름, 아이디, 패스워드, 주소를 입력해야하는 팝업 창이 나온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천메뉴,덮밥류,면류,버거류,음료들로 구성되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간소요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역버튼을 클릭할 시 주문한 상품리스트의 팝업창이 나타난다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +319,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -385,13 +433,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,37 +486,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,41 +555,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,26 +912,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -855,193 +940,193 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -1052,74 +1137,77 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:H2"/>
@@ -1128,14 +1216,11 @@
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1146,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1155,374 +1240,473 @@
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
-    <col min="10" max="10" width="55.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="8" t="s">
-        <v>25</v>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="33">
+      <c r="B4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="82.5">
+      <c r="B5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
-        <v>26</v>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="7"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="7"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="7"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="7"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="7"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="33">
+      <c r="B12" s="27"/>
+      <c r="C12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="24" t="s">
-        <v>45</v>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="9" t="s">
-        <v>32</v>
+      <c r="I13" s="25"/>
+      <c r="J13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="7" t="s">
-        <v>27</v>
+      <c r="B14" s="27"/>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="7"/>
+      <c r="D21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="D13:I13"/>
@@ -1538,18 +1722,10 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="C4:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
